--- a/Sales_Order_Entry_Robot_ChrisSanderson_RossMarshall/itemsOrdered.xlsx
+++ b/Sales_Order_Entry_Robot_ChrisSanderson_RossMarshall/itemsOrdered.xlsx
@@ -14,7 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Qty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
   <x:si>
     <x:t>01</x:t>
   </x:si>
@@ -421,72 +436,89 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
